--- a/raster-layer-statistics-biblical.xlsx
+++ b/raster-layer-statistics-biblical.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesfulford/Desktop/Harvard Remote Sensing/Final/arabah-project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E6BEDA-6D48-584D-97BB-732FB89E5D57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>max</t>
   </si>
@@ -37,33 +42,84 @@
   <si>
     <t>year</t>
   </si>
+  <si>
+    <t>CHANGE</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>STDEV</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>GROUP_2_MEAN</t>
+  </si>
+  <si>
+    <t>GROUP_STDEV</t>
+  </si>
+  <si>
+    <t>VARIANCE</t>
+  </si>
+  <si>
+    <t>T_SCORE</t>
+  </si>
+  <si>
+    <t>CONFIDENCE</t>
+  </si>
+  <si>
+    <t>Additive Change</t>
+  </si>
+  <si>
+    <t>GROUP_2_STDEV</t>
+  </si>
+  <si>
+    <t>Multiplicative Change</t>
+  </si>
+  <si>
+    <t>Comparing to fictional group with no change on average for the same number of years. Assuming February mean vegetation index data for this region would be normally distributed if there was no change, for sake of argument.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -72,27 +128,1157 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Biblical Arabah Mean</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> NDVI By Year</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.9708153106928309E-3"/>
+                  <c:y val="0.10139558312786659"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2745.8646153846148</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3054.455384615384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3558.9092307692308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3723.956923076923</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2871.5907692307692</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3228.8830769230772</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3156.752307692308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3133.476923076923</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2819.1323076923081</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2559.4907692307688</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2745.8646153846148</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2454.5061538461541</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2678.2415384615379</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3092.104615384615</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2581.4907692307688</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3574.941538461539</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2973.3876923076919</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2865.6569230769228</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2557.666153846154</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3092.2184615384622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F8E-FE4B-B5D9-D48CB36CF7ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="685923920"/>
+        <c:axId val="639553440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="685923920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639553440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="639553440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685923920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62273DB7-9911-F64B-9718-F8694F3C9207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,20 +1565,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,528 +1603,851 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>5736</v>
       </c>
-      <c r="C2" t="n">
-        <v>2745.864615384615</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>2745.8646153846148</v>
+      </c>
+      <c r="D2">
         <v>941</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1175.189218011154</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1784812</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>896314234.0861541</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <f>COUNT(J2:J21)</f>
+        <v>19</v>
+      </c>
+      <c r="L2">
+        <f>_xlfn.STDEV.S(J3:J21)</f>
+        <v>455.7959555698863</v>
+      </c>
+      <c r="M2">
+        <f>AVERAGE(J3:J21)</f>
+        <v>18.229149797570916</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>L2</f>
+        <v>455.7959555698863</v>
+      </c>
+      <c r="P2">
+        <f>SQRT((POWER(L2, 2)/K2) + (POWER(O2, 2)/K2))</f>
+        <v>147.87973531640171</v>
+      </c>
+      <c r="Q2">
+        <f>ABS(M2-N2)/P2</f>
+        <v>0.12327010025118076</v>
+      </c>
+      <c r="R2" s="3">
+        <f>_xlfn.T.DIST(Q2,K2-2,TRUE)</f>
+        <v>0.54833055381381679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>7002</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>3054.455384615384</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>734</v>
       </c>
-      <c r="E3" t="n">
-        <v>1585.868485214893</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>1585.8684852148931</v>
+      </c>
+      <c r="F3">
         <v>1985396</v>
       </c>
-      <c r="G3" t="n">
-        <v>1632221275.206158</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3">
+        <v>1632221275.2061579</v>
+      </c>
+      <c r="H3">
         <v>2001</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
+      <c r="J3" s="4">
+        <f>C3-C2</f>
+        <v>308.59076923076918</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>7209</v>
       </c>
-      <c r="C4" t="n">
-        <v>3558.909230769231</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>3558.9092307692308</v>
+      </c>
+      <c r="D4">
         <v>934</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>1561.368653909881</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>2313291</v>
       </c>
-      <c r="G4" t="n">
-        <v>1582178975.644617</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4">
+        <v>1582178975.6446171</v>
+      </c>
+      <c r="H4">
         <v>2002</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:J21" si="0">C4-C3</f>
+        <v>504.45384615384683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>7183</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>3723.956923076923</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>993</v>
       </c>
-      <c r="E5" t="n">
-        <v>1554.957523879381</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5">
+        <v>1554.9575238793809</v>
+      </c>
+      <c r="F5">
         <v>2420572</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1569212492.793844</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>2003</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>165.04769230769216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>6560</v>
       </c>
-      <c r="C6" t="n">
-        <v>2871.590769230769</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>2871.5907692307692</v>
+      </c>
+      <c r="D6">
         <v>15</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>1363.021979653261</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>1866534</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>1205730967.144613</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>2004</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="n">
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>-852.36615384615379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>7777</v>
       </c>
-      <c r="C7" t="n">
-        <v>3228.883076923077</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>3228.8830769230772</v>
+      </c>
+      <c r="D7">
         <v>869</v>
       </c>
-      <c r="E7" t="n">
-        <v>1432.220348453286</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E7">
+        <v>1432.2203484532861</v>
+      </c>
+      <c r="F7">
         <v>2098774</v>
       </c>
-      <c r="G7" t="n">
-        <v>1331264577.11385</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7">
+        <v>1331264577.1138501</v>
+      </c>
+      <c r="H7">
         <v>2005</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="n">
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>357.29230769230799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>7584</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>3156.752307692308</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>891</v>
       </c>
-      <c r="E8" t="n">
-        <v>1555.892870420149</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8">
+        <v>1555.8928704201489</v>
+      </c>
+      <c r="F8">
         <v>2051889</v>
       </c>
-      <c r="G8" t="n">
-        <v>1571100903.121538</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="G8">
+        <v>1571100903.1215379</v>
+      </c>
+      <c r="H8">
         <v>2006</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="n">
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>-72.130769230769147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>6993</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>3133.476923076923</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>862</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>1426.349821136296</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>2036760</v>
       </c>
-      <c r="G9" t="n">
-        <v>1320373504.153848</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="G9">
+        <v>1320373504.1538479</v>
+      </c>
+      <c r="H9">
         <v>2007</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>-23.275384615385065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>6426</v>
       </c>
-      <c r="C10" t="n">
-        <v>2819.132307692308</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>2819.1323076923081</v>
+      </c>
+      <c r="D10">
         <v>-1272</v>
       </c>
-      <c r="E10" t="n">
-        <v>1251.505925923559</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E10">
+        <v>1251.5059259235591</v>
+      </c>
+      <c r="F10">
         <v>1832436</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>1016507336.621538</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>2008</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>-314.34461538461483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>6451</v>
       </c>
-      <c r="C11" t="n">
-        <v>2559.490769230769</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>2559.4907692307688</v>
+      </c>
+      <c r="D11">
         <v>544</v>
       </c>
-      <c r="E11" t="n">
-        <v>1184.598934453296</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11">
+        <v>1184.5989344532959</v>
+      </c>
+      <c r="F11">
         <v>1663669</v>
       </c>
-      <c r="G11" t="n">
-        <v>910725238.4446166</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G11">
+        <v>910725238.44461656</v>
+      </c>
+      <c r="H11">
         <v>2009</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>-259.64153846153931</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>5736</v>
       </c>
-      <c r="C12" t="n">
-        <v>2745.864615384615</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>2745.8646153846148</v>
+      </c>
+      <c r="D12">
         <v>941</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>1175.189218011154</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>1784812</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>896314234.0861541</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>2010</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>186.37384615384599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>5269</v>
       </c>
-      <c r="C13" t="n">
-        <v>2454.506153846154</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>2454.5061538461541</v>
+      </c>
+      <c r="D13">
         <v>668</v>
       </c>
-      <c r="E13" t="n">
-        <v>1064.686001205952</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E13">
+        <v>1064.6860012059519</v>
+      </c>
+      <c r="F13">
         <v>1595429</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>735678026.475384</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>2011</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="n">
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>-291.35846153846069</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>6656</v>
       </c>
-      <c r="C14" t="n">
-        <v>2678.241538461538</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14">
+        <v>2678.2415384615379</v>
+      </c>
+      <c r="D14">
         <v>831</v>
       </c>
-      <c r="E14" t="n">
-        <v>1273.686033762495</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E14">
+        <v>1273.6860337624951</v>
+      </c>
+      <c r="F14">
         <v>1740857</v>
       </c>
-      <c r="G14" t="n">
-        <v>1052857197.078461</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="G14">
+        <v>1052857197.0784611</v>
+      </c>
+      <c r="H14">
         <v>2012</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="n">
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>223.73538461538374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>8290</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3092.104615384615</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>971</v>
       </c>
-      <c r="E15" t="n">
-        <v>1438.430402535021</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E15">
+        <v>1438.4304025350209</v>
+      </c>
+      <c r="F15">
         <v>2009868</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>1342834232.886153</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>2013</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="n">
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>413.86307692307719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>6242</v>
       </c>
-      <c r="C16" t="n">
-        <v>2581.490769230769</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>2581.4907692307688</v>
+      </c>
+      <c r="D16">
         <v>389</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>1183.36803974087</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>1677969</v>
       </c>
-      <c r="G16" t="n">
-        <v>908833586.4446163</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="G16">
+        <v>908833586.44461632</v>
+      </c>
+      <c r="H16">
         <v>2014</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="n">
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>-510.61384615384623</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>7916</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>3574.941538461539</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>1095</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>1435.677054098453</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>2323712</v>
       </c>
-      <c r="G17" t="n">
-        <v>1337698423.778464</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="G17">
+        <v>1337698423.7784641</v>
+      </c>
+      <c r="H17">
         <v>2015</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="n">
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>993.45076923077022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>7036</v>
       </c>
-      <c r="C18" t="n">
-        <v>2973.387692307692</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>2973.3876923076919</v>
+      </c>
+      <c r="D18">
         <v>970</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>1211.546917237632</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>1932702</v>
       </c>
-      <c r="G18" t="n">
-        <v>952632010.3015386</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="G18">
+        <v>952632010.30153859</v>
+      </c>
+      <c r="H18">
         <v>2016</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="n">
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>-601.55384615384719</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>7068</v>
       </c>
-      <c r="C19" t="n">
-        <v>2865.656923076923</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>2865.6569230769228</v>
+      </c>
+      <c r="D19">
         <v>778</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>1375.511155020861</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>1862677</v>
       </c>
-      <c r="G19" t="n">
-        <v>1227928078.493848</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="G19">
+        <v>1227928078.4938481</v>
+      </c>
+      <c r="H19">
         <v>2017</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="n">
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>-107.73076923076906</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>6657</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>2557.666153846154</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>695</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>1181.771214197043</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>1662483</v>
       </c>
-      <c r="G20" t="n">
-        <v>906382498.5553848</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="G20">
+        <v>906382498.55538476</v>
+      </c>
+      <c r="H20">
         <v>2018</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="n">
+      <c r="J20" s="4">
+        <f t="shared" si="0"/>
+        <v>-307.99076923076882</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>7209</v>
       </c>
-      <c r="C21" t="n">
-        <v>3092.218461538462</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>3092.2184615384622</v>
+      </c>
+      <c r="D21">
         <v>914</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>1448.977333948515</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>2009942</v>
       </c>
-      <c r="G21" t="n">
-        <v>1362598418.978458</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="G21">
+        <v>1362598418.9784579</v>
+      </c>
+      <c r="H21">
         <v>2019</v>
       </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>534.5523076923082</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24">
+        <f>COUNT(J24:J43)</f>
+        <v>19</v>
+      </c>
+      <c r="L24">
+        <f>_xlfn.STDEV.S(J25:J43)</f>
+        <v>0.14948404469897122</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(J25:J43)</f>
+        <v>1.0043741127641115</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <f>L24</f>
+        <v>0.14948404469897122</v>
+      </c>
+      <c r="P24">
+        <f>SQRT((POWER(L24, 2)/K24) + (POWER(O24, 2)/K24))</f>
+        <v>4.8499028334883086E-2</v>
+      </c>
+      <c r="Q24">
+        <f>ABS(M24-N24)/P24</f>
+        <v>9.0189698933934859E-2</v>
+      </c>
+      <c r="R24" s="3">
+        <f>_xlfn.T.DIST(Q24,K24-2,TRUE)</f>
+        <v>0.53540470901535653</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J25" s="3">
+        <f>C2/C3</f>
+        <v>0.8989702809918021</v>
+      </c>
+      <c r="N25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J26" s="3">
+        <f t="shared" ref="J26:J43" si="1">C3/C4</f>
+        <v>0.85825605165973484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.95567948402278469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J28" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2968271673593945</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J29" s="3">
+        <f t="shared" si="1"/>
+        <v>0.88934492232131701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J30" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0228496765663249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J31" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0074279738408061</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J32" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1115040307001169</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1014426547588496</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J34" s="3">
+        <f t="shared" si="1"/>
+        <v>0.93212562443551483</v>
+      </c>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J35" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1187034960502782</v>
+      </c>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J36" s="3">
+        <f t="shared" si="1"/>
+        <v>0.91646183460215314</v>
+      </c>
+    </row>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J37" s="3">
+        <f t="shared" si="1"/>
+        <v>0.86615489176403615</v>
+      </c>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J38" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1977980522882128</v>
+      </c>
+    </row>
+    <row r="39" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J39" s="3">
+        <f t="shared" si="1"/>
+        <v>0.72210712859424897</v>
+      </c>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J40" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2023126172581189</v>
+      </c>
+    </row>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J41" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0375937427691435</v>
+      </c>
+    </row>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J42" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1204186749578791</v>
+      </c>
+    </row>
+    <row r="43" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J43" s="3">
+        <f t="shared" si="1"/>
+        <v>0.82712983757740255</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/raster-layer-statistics-biblical.xlsx
+++ b/raster-layer-statistics-biblical.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesfulford/Desktop/Harvard Remote Sensing/Final/arabah-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E6BEDA-6D48-584D-97BB-732FB89E5D57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A8A186-2AD5-224F-8E29-CB89D0DE50F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>max</t>
   </si>
@@ -46,40 +47,22 @@
     <t>CHANGE</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>STDEV</t>
-  </si>
-  <si>
-    <t>MEAN</t>
-  </si>
-  <si>
-    <t>GROUP_2_MEAN</t>
-  </si>
-  <si>
-    <t>GROUP_STDEV</t>
-  </si>
-  <si>
-    <t>VARIANCE</t>
-  </si>
-  <si>
-    <t>T_SCORE</t>
-  </si>
-  <si>
-    <t>CONFIDENCE</t>
-  </si>
-  <si>
     <t>Additive Change</t>
-  </si>
-  <si>
-    <t>GROUP_2_STDEV</t>
   </si>
   <si>
     <t>Multiplicative Change</t>
   </si>
   <si>
-    <t>Comparing to fictional group with no change on average for the same number of years. Assuming February mean vegetation index data for this region would be normally distributed if there was no change, for sake of argument.</t>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Mean NDVI</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Relative Difference</t>
   </si>
 </sst>
 </file>
@@ -156,7 +139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -166,6 +149,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1568,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1606,30 +1592,14 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -1657,39 +1627,9 @@
         <v>2000</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2">
-        <f>COUNT(J2:J21)</f>
-        <v>19</v>
-      </c>
-      <c r="L2">
-        <f>_xlfn.STDEV.S(J3:J21)</f>
-        <v>455.7959555698863</v>
-      </c>
-      <c r="M2">
-        <f>AVERAGE(J3:J21)</f>
-        <v>18.229149797570916</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f>L2</f>
-        <v>455.7959555698863</v>
-      </c>
-      <c r="P2">
-        <f>SQRT((POWER(L2, 2)/K2) + (POWER(O2, 2)/K2))</f>
-        <v>147.87973531640171</v>
-      </c>
-      <c r="Q2">
-        <f>ABS(M2-N2)/P2</f>
-        <v>0.12327010025118076</v>
-      </c>
-      <c r="R2" s="3">
-        <f>_xlfn.T.DIST(Q2,K2-2,TRUE)</f>
-        <v>0.54833055381381679</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -1720,9 +1660,6 @@
         <f>C3-C2</f>
         <v>308.59076923076918</v>
       </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -2268,75 +2205,26 @@
       <c r="J23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24">
-        <f>COUNT(J24:J43)</f>
-        <v>19</v>
-      </c>
-      <c r="L24">
-        <f>_xlfn.STDEV.S(J25:J43)</f>
-        <v>0.14948404469897122</v>
-      </c>
-      <c r="M24">
-        <f>AVERAGE(J25:J43)</f>
-        <v>1.0043741127641115</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <f>L24</f>
-        <v>0.14948404469897122</v>
-      </c>
-      <c r="P24">
-        <f>SQRT((POWER(L24, 2)/K24) + (POWER(O24, 2)/K24))</f>
-        <v>4.8499028334883086E-2</v>
-      </c>
-      <c r="Q24">
-        <f>ABS(M24-N24)/P24</f>
-        <v>9.0189698933934859E-2</v>
-      </c>
-      <c r="R24" s="3">
-        <f>_xlfn.T.DIST(Q24,K24-2,TRUE)</f>
-        <v>0.53540470901535653</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J25" s="3">
         <f>C2/C3</f>
         <v>0.8989702809918021</v>
       </c>
-      <c r="N25" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J26" s="3">
@@ -2450,4 +2338,360 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA94AEF9-51EF-ED4C-9881-22F42C134F78}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2745.8646153846148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3054.455384615384</v>
+      </c>
+      <c r="C3" s="5">
+        <f>B3-B2</f>
+        <v>308.59076923076918</v>
+      </c>
+      <c r="D3" s="6">
+        <f>C3/B2</f>
+        <v>0.1123838252992472</v>
+      </c>
+      <c r="F3" s="7">
+        <f>AVERAGE(C3:C21)</f>
+        <v>18.229149797570916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3558.9092307692308</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" ref="C4:C21" si="0">B4-B3</f>
+        <v>504.45384615384683</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D21" si="1">C4/B3</f>
+        <v>0.16515345049551852</v>
+      </c>
+      <c r="F4">
+        <f>_xlfn.STDEV.S(C3:C21)</f>
+        <v>455.7959555698863</v>
+      </c>
+      <c r="G4">
+        <f>F3/F4</f>
+        <v>3.9994101691356219E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3723.956923076923</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>165.04769230769216</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="1"/>
+        <v>4.6375920712093684E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2871.5907692307692</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>-852.36615384615379</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.22888722169801187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3228.8830769230772</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>357.29230769230799</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.12442312864378587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3156.752307692308</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>-72.130769230769147</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.2339232332780918E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3133.476923076923</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>-23.275384615385065</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="1"/>
+        <v>-7.3732058605510782E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2819.1323076923081</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>-314.34461538461483</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.10031815235962982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2559.4907692307688</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>-259.64153846153931</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="1"/>
+        <v>-9.2099805941381049E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2745.8646153846148</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>186.37384615384599</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="1"/>
+        <v>7.2816768239355248E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2454.5061538461541</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>-291.35846153846069</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.10610809429788655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2678.2415384615379</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>223.73538461538374</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="1"/>
+        <v>9.1152912476831882E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="5">
+        <v>3092.104615384615</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>413.86307692307719</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="1"/>
+        <v>0.15452791355062492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2581.4907692307688</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>-510.61384615384623</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.16513472526553988</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="5">
+        <v>3574.941538461539</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
+        <v>993.45076923077022</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="1"/>
+        <v>0.38483607265688502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2973.3876923076919</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>-601.55384615384719</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.16826956180456124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2865.6569230769228</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
+        <v>-107.73076923076906</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="1"/>
+        <v>-3.6231659096953334E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2557.666153846154</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
+        <v>-307.99076923076882</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.10747649753553609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3092.2184615384622</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="0"/>
+        <v>534.5523076923082</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="1"/>
+        <v>0.20900003188002542</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>